--- a/data/142/STANOR/07972 Employed persons by industry.xlsx
+++ b/data/142/STANOR/07972 Employed persons by industry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <x:si>
     <x:t>07972: Employed persons (LFS) (1 000 persons), by quarter, industry (SIC2007), contents, sex and age</x:t>
   </x:si>
@@ -196,19 +196,25 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>The figures in the table covers persons aged 15-74 years.</x:t>
   </x:si>
   <x:si>
     <x:t>From 2018, a new estimation method has been applied, the figures have been revised back to 2006. For more information, see separate &lt;a href='https://www.ssb.no/arbeid-og-lonn/artikler-og-publikasjoner/new-estimation-methodology-for-the-norwegian-labour-force-survey'&gt; article &lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. Thue use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people. See About the statistics for more information.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Employed persons:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211028 08:00</x:t>
+    <x:t>20220127 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -670,14 +676,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B111"/>
+  <x:dimension ref="A1:B113"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.540625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -1145,9 +1150,12 @@
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:2">
-      <x:c r="A63" s="4" t="s">
+    <x:row r="62" spans="1:2">
+      <x:c r="A62" s="2" t="s">
         <x:v>60</x:v>
+      </x:c>
+      <x:c r="B62" s="3" t="n">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2">
@@ -1155,13 +1163,13 @@
         <x:v>61</x:v>
       </x:c>
     </x:row>
+    <x:row r="65" spans="1:2">
+      <x:c r="A65" s="4" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
     <x:row r="66" spans="1:2">
-      <x:c r="A66" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:2">
-      <x:c r="A67" s="0" t="s">
+      <x:c r="A66" s="4" t="s">
         <x:v>63</x:v>
       </x:c>
     </x:row>
@@ -1170,34 +1178,34 @@
         <x:v>64</x:v>
       </x:c>
     </x:row>
+    <x:row r="69" spans="1:2">
+      <x:c r="A69" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:2">
-      <x:c r="A71" s="0" t="s">
         <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:2">
+      <x:c r="A72" s="0" t="s">
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:2">
-      <x:c r="A74" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2">
@@ -1205,13 +1213,13 @@
         <x:v>70</x:v>
       </x:c>
     </x:row>
+    <x:row r="78" spans="1:2">
+      <x:c r="A78" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:2">
-      <x:c r="A80" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
     </x:row>
@@ -1220,13 +1228,13 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
+    <x:row r="82" spans="1:2">
+      <x:c r="A82" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:2">
-      <x:c r="A84" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
@@ -1235,77 +1243,92 @@
         <x:v>76</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:2">
-      <x:c r="A89" s="0" t="s">
+    <x:row r="86" spans="1:2">
+      <x:c r="A86" s="0" t="s">
         <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2">
+      <x:c r="A87" s="0" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:2">
-      <x:c r="A92" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:2">
+      <x:c r="A97" s="0" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:2">
-      <x:c r="A99" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:2">
-      <x:c r="A107" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:2">
-      <x:c r="A108" s="0" t="s">
+    <x:row r="101" spans="1:2">
+      <x:c r="A101" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:2">
+      <x:c r="A102" s="0" t="s">
         <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:2">
+      <x:c r="A109" s="0" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:2">
-      <x:c r="A111" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
     </x:row>
+    <x:row r="112" spans="1:2">
+      <x:c r="A112" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:2">
+      <x:c r="A113" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A64:B64"/>
+    <x:mergeCell ref="A65:B65"/>
+    <x:mergeCell ref="A66:B66"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
